--- a/state_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
+++ b/state_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.0075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0087333460845407</v>
+        <v>0.008736422685822901</v>
       </c>
       <c r="H3" t="n">
         <v>0.038</v>
@@ -732,7 +732,7 @@
         <v>0.0075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0087333460845407</v>
+        <v>0.008736422685822901</v>
       </c>
       <c r="H4" t="n">
         <v>0.038</v>
@@ -813,7 +813,7 @@
         <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>224.142476619624</v>
+        <v>224.150679305177</v>
       </c>
       <c r="H5" t="n">
         <v>3100</v>
@@ -898,7 +898,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>224.142476619624</v>
+        <v>224.150679305177</v>
       </c>
       <c r="H6" t="n">
         <v>3100</v>
@@ -983,7 +983,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>224.142476619624</v>
+        <v>224.150679305177</v>
       </c>
       <c r="H7" t="n">
         <v>3100</v>
@@ -1068,7 +1068,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>224.142476619624</v>
+        <v>224.150679305177</v>
       </c>
       <c r="H8" t="n">
         <v>3100</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00071</v>
+        <v>0.00078</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0049385133972338</v>
+        <v>0.0049712986377018</v>
       </c>
       <c r="H9" t="n">
         <v>0.0524475524475524</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00091</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M9" t="n">
         <v>0.00549</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00071</v>
+        <v>0.00078</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0049385133972338</v>
+        <v>0.0049712986377018</v>
       </c>
       <c r="H10" t="n">
         <v>0.0524475524475524</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00091</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M10" t="n">
         <v>0.00549</v>
@@ -1315,7 +1315,7 @@
         <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07808388083637401</v>
+        <v>0.0780622593382628</v>
       </c>
       <c r="H11" t="n">
         <v>0.17</v>
@@ -1396,7 +1396,7 @@
         <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07808388083637401</v>
+        <v>0.0780622593382628</v>
       </c>
       <c r="H12" t="n">
         <v>0.17</v>
@@ -1473,13 +1473,13 @@
         <v>0.101</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0904605321285995</v>
+        <v>0.0905109027934117</v>
       </c>
       <c r="H13" t="n">
         <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1696</v>
+        <v>0.16975</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1487,10 +1487,10 @@
         <v>0.049</v>
       </c>
       <c r="M13" t="n">
-        <v>0.13956</v>
+        <v>0.13937</v>
       </c>
       <c r="N13" t="n">
-        <v>0.15548</v>
+        <v>0.1556</v>
       </c>
       <c r="O13" t="n">
         <v>1814087</v>
@@ -1550,13 +1550,13 @@
         <v>0.101</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0904605321285995</v>
+        <v>0.0905109027934117</v>
       </c>
       <c r="H14" t="n">
         <v>0.24</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1696</v>
+        <v>0.16975</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1564,10 +1564,10 @@
         <v>0.049</v>
       </c>
       <c r="M14" t="n">
-        <v>0.13956</v>
+        <v>0.13937</v>
       </c>
       <c r="N14" t="n">
-        <v>0.15548</v>
+        <v>0.1556</v>
       </c>
       <c r="O14" t="n">
         <v>1814087</v>
@@ -1631,7 +1631,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009636967552135001</v>
+        <v>0.0096425363361011</v>
       </c>
       <c r="H15" t="n">
         <v>0.038</v>
@@ -1712,7 +1712,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009636967552135001</v>
+        <v>0.0096425363361011</v>
       </c>
       <c r="H16" t="n">
         <v>0.038</v>
@@ -1789,7 +1789,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0920876746438907</v>
+        <v>0.0921651946806931</v>
       </c>
       <c r="H17" t="n">
         <v>0.24</v>
@@ -1800,13 +1800,13 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.051</v>
+        <v>0.05125</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1482</v>
+        <v>0.1479</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1588</v>
+        <v>0.15925</v>
       </c>
       <c r="O17" t="n">
         <v>1814087</v>
@@ -1866,7 +1866,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0920876746438907</v>
+        <v>0.0921651946806931</v>
       </c>
       <c r="H18" t="n">
         <v>0.24</v>
@@ -1877,13 +1877,13 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.051</v>
+        <v>0.05125</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1482</v>
+        <v>0.1479</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1588</v>
+        <v>0.15925</v>
       </c>
       <c r="O18" t="n">
         <v>1814087</v>
@@ -1947,10 +1947,10 @@
         <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78424802396134</v>
+        <v>2.81964899792437</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8306729344924</v>
+        <v>9.21131091905044</v>
       </c>
       <c r="I19" t="n">
         <v>7.015</v>
@@ -2028,7 +2028,7 @@
         <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008802856704294501</v>
+        <v>0.008809550217052001</v>
       </c>
       <c r="H20" t="n">
         <v>0.038</v>
@@ -2109,7 +2109,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008802856704294501</v>
+        <v>0.008809550217052001</v>
       </c>
       <c r="H21" t="n">
         <v>0.038</v>
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>284.780162967972</v>
+        <v>284.787165260517</v>
       </c>
       <c r="H22" t="n">
         <v>3100</v>
@@ -2275,7 +2275,7 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>284.780162967972</v>
+        <v>284.787165260517</v>
       </c>
       <c r="H23" t="n">
         <v>3100</v>
@@ -2360,7 +2360,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>284.780162967972</v>
+        <v>284.787165260517</v>
       </c>
       <c r="H24" t="n">
         <v>3100</v>
@@ -2445,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>284.780162967972</v>
+        <v>284.787165260517</v>
       </c>
       <c r="H25" t="n">
         <v>3100</v>
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00087</v>
+        <v>0.0009</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00452419817795</v>
+        <v>0.0045848593826725</v>
       </c>
       <c r="H26" t="n">
         <v>0.0524475524475524</v>
@@ -2541,13 +2541,13 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00098</v>
+        <v>0.00102</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00372</v>
+        <v>0.00377</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01321</v>
+        <v>0.0137</v>
       </c>
       <c r="O26" t="n">
         <v>1814087</v>
@@ -2608,10 +2608,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.00087</v>
+        <v>0.0009</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00452419817795</v>
+        <v>0.0045848593826725</v>
       </c>
       <c r="H27" t="n">
         <v>0.0524475524475524</v>
@@ -2622,13 +2622,13 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00098</v>
+        <v>0.00102</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00372</v>
+        <v>0.00377</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01321</v>
+        <v>0.0137</v>
       </c>
       <c r="O27" t="n">
         <v>1814087</v>
@@ -2685,27 +2685,27 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0925</v>
+        <v>0.09275</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0908007199837314</v>
+        <v>0.0908560914385903</v>
       </c>
       <c r="H28" t="n">
         <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1642</v>
+        <v>0.1645</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.051</v>
+        <v>0.05125</v>
       </c>
       <c r="M28" t="n">
-        <v>0.14772</v>
+        <v>0.1479</v>
       </c>
       <c r="N28" t="n">
-        <v>0.15528</v>
+        <v>0.15535</v>
       </c>
       <c r="O28" t="n">
         <v>1814087</v>
@@ -2762,27 +2762,27 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0925</v>
+        <v>0.09275</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0908007199837314</v>
+        <v>0.0908560914385903</v>
       </c>
       <c r="H29" t="n">
         <v>0.24</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1642</v>
+        <v>0.1645</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.051</v>
+        <v>0.05125</v>
       </c>
       <c r="M29" t="n">
-        <v>0.14772</v>
+        <v>0.1479</v>
       </c>
       <c r="N29" t="n">
-        <v>0.15528</v>
+        <v>0.15535</v>
       </c>
       <c r="O29" t="n">
         <v>1814087</v>
@@ -2846,10 +2846,10 @@
         <v>2.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.07971345868985</v>
+        <v>3.10732621838101</v>
       </c>
       <c r="H30" t="n">
-        <v>7.8306729344924</v>
+        <v>9.21131091905044</v>
       </c>
       <c r="I30" t="n">
         <v>6.3</v>
@@ -2927,7 +2927,7 @@
         <v>0.008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0083625208392204</v>
+        <v>0.0083697713996106</v>
       </c>
       <c r="H31" t="n">
         <v>0.038</v>
@@ -3008,7 +3008,7 @@
         <v>0.008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0083625208392204</v>
+        <v>0.0083697713996106</v>
       </c>
       <c r="H32" t="n">
         <v>0.038</v>
@@ -3089,7 +3089,7 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>245.230513109362</v>
+        <v>245.236034147715</v>
       </c>
       <c r="H33" t="n">
         <v>3100</v>
@@ -3174,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>245.230513109362</v>
+        <v>245.236034147715</v>
       </c>
       <c r="H34" t="n">
         <v>3100</v>
@@ -3259,7 +3259,7 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>245.230513109362</v>
+        <v>245.236034147715</v>
       </c>
       <c r="H35" t="n">
         <v>3100</v>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>245.230513109362</v>
+        <v>245.236034147715</v>
       </c>
       <c r="H36" t="n">
         <v>3100</v>
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.00109</v>
+        <v>0.00113</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0040468991319656</v>
+        <v>0.0040940543904582</v>
       </c>
       <c r="H37" t="n">
         <v>0.0524475524475524</v>
@@ -3440,13 +3440,13 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.00162</v>
+        <v>0.00161</v>
       </c>
       <c r="M37" t="n">
         <v>0.0038</v>
       </c>
       <c r="N37" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.00923</v>
       </c>
       <c r="O37" t="n">
         <v>1814087</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.00109</v>
+        <v>0.00113</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0040468991319656</v>
+        <v>0.0040940543904582</v>
       </c>
       <c r="H38" t="n">
         <v>0.0524475524475524</v>
@@ -3521,13 +3521,13 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.00162</v>
+        <v>0.00161</v>
       </c>
       <c r="M38" t="n">
         <v>0.0038</v>
       </c>
       <c r="N38" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.00923</v>
       </c>
       <c r="O38" t="n">
         <v>1814087</v>
@@ -3591,7 +3591,7 @@
         <v>0.09</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08154817143179981</v>
+        <v>0.0815314762762462</v>
       </c>
       <c r="H39" t="n">
         <v>0.17</v>
@@ -3672,7 +3672,7 @@
         <v>0.09</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08154817143179981</v>
+        <v>0.0815314762762462</v>
       </c>
       <c r="H40" t="n">
         <v>0.17</v>
@@ -3746,27 +3746,27 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0885024573455985</v>
+        <v>0.0885897328381282</v>
       </c>
       <c r="H41" t="n">
         <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1567</v>
+        <v>0.15712</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.059</v>
+        <v>0.05925</v>
       </c>
       <c r="M41" t="n">
-        <v>0.14394</v>
+        <v>0.14369</v>
       </c>
       <c r="N41" t="n">
-        <v>0.15352</v>
+        <v>0.15315</v>
       </c>
       <c r="O41" t="n">
         <v>1814087</v>
@@ -3823,27 +3823,27 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0885024573455985</v>
+        <v>0.0885897328381282</v>
       </c>
       <c r="H42" t="n">
         <v>0.24</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1567</v>
+        <v>0.15712</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.059</v>
+        <v>0.05925</v>
       </c>
       <c r="M42" t="n">
-        <v>0.14394</v>
+        <v>0.14369</v>
       </c>
       <c r="N42" t="n">
-        <v>0.15352</v>
+        <v>0.15315</v>
       </c>
       <c r="O42" t="n">
         <v>1814087</v>
@@ -3907,10 +3907,10 @@
         <v>3.175</v>
       </c>
       <c r="G43" t="n">
-        <v>3.30970095446819</v>
+        <v>3.33715070777779</v>
       </c>
       <c r="H43" t="n">
-        <v>7.8306729344924</v>
+        <v>9.21131091905044</v>
       </c>
       <c r="I43" t="n">
         <v>6.4</v>
@@ -3988,7 +3988,7 @@
         <v>0.0065</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0064524138452568</v>
+        <v>0.0064624344799469</v>
       </c>
       <c r="H44" t="n">
         <v>0.0145</v>
@@ -4069,7 +4069,7 @@
         <v>0.0065</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0064524138452568</v>
+        <v>0.0064624344799469</v>
       </c>
       <c r="H45" t="n">
         <v>0.0145</v>
@@ -4150,7 +4150,7 @@
         <v>95</v>
       </c>
       <c r="G46" t="n">
-        <v>261.112956258242</v>
+        <v>261.11837312606</v>
       </c>
       <c r="H46" t="n">
         <v>3100</v>
@@ -4235,7 +4235,7 @@
         <v>95</v>
       </c>
       <c r="G47" t="n">
-        <v>261.112956258242</v>
+        <v>261.11837312606</v>
       </c>
       <c r="H47" t="n">
         <v>3100</v>
@@ -4320,7 +4320,7 @@
         <v>95</v>
       </c>
       <c r="G48" t="n">
-        <v>261.112956258242</v>
+        <v>261.11837312606</v>
       </c>
       <c r="H48" t="n">
         <v>3100</v>
@@ -4405,7 +4405,7 @@
         <v>95</v>
       </c>
       <c r="G49" t="n">
-        <v>261.112956258242</v>
+        <v>261.11837312606</v>
       </c>
       <c r="H49" t="n">
         <v>3100</v>
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00181</v>
+        <v>0.00183</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0048619230976278</v>
+        <v>0.0049020233366023</v>
       </c>
       <c r="H50" t="n">
         <v>0.0706495960573401</v>
@@ -4501,7 +4501,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00242</v>
+        <v>0.00251</v>
       </c>
       <c r="M50" t="n">
         <v>0.00784</v>
@@ -4568,10 +4568,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00181</v>
+        <v>0.00183</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0048619230976278</v>
+        <v>0.0049020233366023</v>
       </c>
       <c r="H51" t="n">
         <v>0.0706495960573401</v>
@@ -4582,7 +4582,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00242</v>
+        <v>0.00251</v>
       </c>
       <c r="M51" t="n">
         <v>0.00784</v>
@@ -4652,7 +4652,7 @@
         <v>0.097</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08737747448970951</v>
+        <v>0.0873671682546352</v>
       </c>
       <c r="H52" t="n">
         <v>0.17</v>
@@ -4733,7 +4733,7 @@
         <v>0.097</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08737747448970951</v>
+        <v>0.0873671682546352</v>
       </c>
       <c r="H53" t="n">
         <v>0.17</v>
@@ -4807,27 +4807,27 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="G54" t="n">
-        <v>0.093188679245283</v>
+        <v>0.0932603773584906</v>
       </c>
       <c r="H54" t="n">
         <v>0.287</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1706</v>
+        <v>0.17067</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.067</v>
+        <v>0.06675</v>
       </c>
       <c r="M54" t="n">
-        <v>0.147</v>
+        <v>0.14674</v>
       </c>
       <c r="N54" t="n">
-        <v>0.15552</v>
+        <v>0.15565</v>
       </c>
       <c r="O54" t="n">
         <v>1814087</v>
@@ -4884,27 +4884,27 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="G55" t="n">
-        <v>0.093188679245283</v>
+        <v>0.0932603773584906</v>
       </c>
       <c r="H55" t="n">
         <v>0.287</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1706</v>
+        <v>0.17067</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.067</v>
+        <v>0.06675</v>
       </c>
       <c r="M55" t="n">
-        <v>0.147</v>
+        <v>0.14674</v>
       </c>
       <c r="N55" t="n">
-        <v>0.15552</v>
+        <v>0.15565</v>
       </c>
       <c r="O55" t="n">
         <v>1814087</v>
@@ -5118,7 +5118,7 @@
         <v>0.014</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0174112429865412</v>
+        <v>0.0174129794688906</v>
       </c>
       <c r="H58" t="n">
         <v>0.082</v>
@@ -5195,7 +5195,7 @@
         <v>0.014</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0174112429865412</v>
+        <v>0.0174129794688906</v>
       </c>
       <c r="H59" t="n">
         <v>0.082</v>
@@ -5276,10 +5276,10 @@
         <v>3.6</v>
       </c>
       <c r="G60" t="n">
-        <v>3.68691590900871</v>
+        <v>3.71611777423169</v>
       </c>
       <c r="H60" t="n">
-        <v>7.8306729344924</v>
+        <v>9.21131091905044</v>
       </c>
       <c r="I60" t="n">
         <v>6.58</v>
@@ -5357,7 +5357,7 @@
         <v>0.006</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0059531469172585</v>
+        <v>0.0059640702796016</v>
       </c>
       <c r="H61" t="n">
         <v>0.011</v>
@@ -5438,7 +5438,7 @@
         <v>0.006</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0059531469172585</v>
+        <v>0.0059640702796016</v>
       </c>
       <c r="H62" t="n">
         <v>0.011</v>
@@ -5859,7 +5859,7 @@
         <v>0.00317</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0066689656860511</v>
+        <v>0.0066981329761803</v>
       </c>
       <c r="H67" t="n">
         <v>0.0706495960573401</v>
@@ -5870,10 +5870,10 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.00452</v>
+        <v>0.0045</v>
       </c>
       <c r="M67" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.01049</v>
       </c>
       <c r="N67" t="n">
         <v>0.0157</v>
@@ -5940,7 +5940,7 @@
         <v>0.00317</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0066689656860511</v>
+        <v>0.0066981329761803</v>
       </c>
       <c r="H68" t="n">
         <v>0.0706495960573401</v>
@@ -5951,10 +5951,10 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00452</v>
+        <v>0.0045</v>
       </c>
       <c r="M68" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.01049</v>
       </c>
       <c r="N68" t="n">
         <v>0.0157</v>
@@ -6021,7 +6021,7 @@
         <v>0.0655</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07990379027918321</v>
+        <v>0.0798934840441089</v>
       </c>
       <c r="H69" t="n">
         <v>0.27</v>
@@ -6102,7 +6102,7 @@
         <v>0.0655</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07990379027918321</v>
+        <v>0.0798934840441089</v>
       </c>
       <c r="H70" t="n">
         <v>0.27</v>
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.075</v>
+        <v>0.0745</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0887547169811321</v>
+        <v>0.0888264150943396</v>
       </c>
       <c r="H71" t="n">
         <v>0.287</v>
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.075</v>
+        <v>0.0745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0887547169811321</v>
+        <v>0.0888264150943396</v>
       </c>
       <c r="H72" t="n">
         <v>0.287</v>
@@ -6487,7 +6487,7 @@
         <v>0.014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0163612016770749</v>
+        <v>0.0163649223007926</v>
       </c>
       <c r="H75" t="n">
         <v>0.082</v>
@@ -6564,7 +6564,7 @@
         <v>0.014</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0163612016770749</v>
+        <v>0.0163649223007926</v>
       </c>
       <c r="H76" t="n">
         <v>0.082</v>
@@ -6726,7 +6726,7 @@
         <v>3.2</v>
       </c>
       <c r="G78" t="n">
-        <v>3.53781839224371</v>
+        <v>3.53766461263847</v>
       </c>
       <c r="H78" t="n">
         <v>7.6</v>
@@ -6807,7 +6807,7 @@
         <v>0.006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0059770558570329</v>
+        <v>0.0059860506696453</v>
       </c>
       <c r="H79" t="n">
         <v>0.011</v>
@@ -6888,7 +6888,7 @@
         <v>0.006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0059770558570329</v>
+        <v>0.0059860506696453</v>
       </c>
       <c r="H80" t="n">
         <v>0.011</v>
@@ -7386,7 +7386,7 @@
         <v>0.00288</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0061613160776677</v>
+        <v>0.0061670383400598</v>
       </c>
       <c r="H86" t="n">
         <v>0.0706495960573401</v>
@@ -7397,7 +7397,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.0036</v>
+        <v>0.00359</v>
       </c>
       <c r="M86" t="n">
         <v>0.00923</v>
@@ -7467,7 +7467,7 @@
         <v>0.00288</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0061613160776677</v>
+        <v>0.0061670383400598</v>
       </c>
       <c r="H87" t="n">
         <v>0.0706495960573401</v>
@@ -7478,7 +7478,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.0036</v>
+        <v>0.00359</v>
       </c>
       <c r="M87" t="n">
         <v>0.00923</v>
@@ -7548,7 +7548,7 @@
         <v>0.06</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07385488061217919</v>
+        <v>0.07384704787352279</v>
       </c>
       <c r="H88" t="n">
         <v>0.27</v>
@@ -7629,7 +7629,7 @@
         <v>0.06</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07385488061217919</v>
+        <v>0.07384704787352279</v>
       </c>
       <c r="H89" t="n">
         <v>0.27</v>
@@ -7706,7 +7706,7 @@
         <v>0.073</v>
       </c>
       <c r="G90" t="n">
-        <v>0.088728813559322</v>
+        <v>0.0887525423728814</v>
       </c>
       <c r="H90" t="n">
         <v>0.287</v>
@@ -7720,7 +7720,7 @@
         <v>0.0595</v>
       </c>
       <c r="M90" t="n">
-        <v>0.14241</v>
+        <v>0.14236</v>
       </c>
       <c r="N90" t="n">
         <v>0.1589</v>
@@ -7783,7 +7783,7 @@
         <v>0.073</v>
       </c>
       <c r="G91" t="n">
-        <v>0.088728813559322</v>
+        <v>0.0887525423728814</v>
       </c>
       <c r="H91" t="n">
         <v>0.287</v>
@@ -7797,7 +7797,7 @@
         <v>0.0595</v>
       </c>
       <c r="M91" t="n">
-        <v>0.14241</v>
+        <v>0.14236</v>
       </c>
       <c r="N91" t="n">
         <v>0.1589</v>
@@ -8014,7 +8014,7 @@
         <v>0.014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0157651472692368</v>
+        <v>0.0157684895244408</v>
       </c>
       <c r="H94" t="n">
         <v>0.082</v>
@@ -8091,7 +8091,7 @@
         <v>0.014</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0157651472692368</v>
+        <v>0.0157684895244408</v>
       </c>
       <c r="H95" t="n">
         <v>0.082</v>
@@ -8330,7 +8330,7 @@
         <v>3.3</v>
       </c>
       <c r="G98" t="n">
-        <v>3.34944757928354</v>
+        <v>3.33762370002431</v>
       </c>
       <c r="H98" t="n">
         <v>6.4</v>
@@ -8411,7 +8411,7 @@
         <v>0.006</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0066107684838749</v>
+        <v>0.0066178300080665</v>
       </c>
       <c r="H99" t="n">
         <v>0.025</v>
@@ -8492,7 +8492,7 @@
         <v>0.006</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0066107684838749</v>
+        <v>0.0066178300080665</v>
       </c>
       <c r="H100" t="n">
         <v>0.025</v>
@@ -8990,7 +8990,7 @@
         <v>0.00444</v>
       </c>
       <c r="G106" t="n">
-        <v>0.007627867854072</v>
+        <v>0.0076300751009627</v>
       </c>
       <c r="H106" t="n">
         <v>0.0706495960573401</v>
@@ -9001,7 +9001,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00479</v>
+        <v>0.00478</v>
       </c>
       <c r="M106" t="n">
         <v>0.01215</v>
@@ -9071,7 +9071,7 @@
         <v>0.00444</v>
       </c>
       <c r="G107" t="n">
-        <v>0.007627867854072</v>
+        <v>0.0076300751009627</v>
       </c>
       <c r="H107" t="n">
         <v>0.0706495960573401</v>
@@ -9082,7 +9082,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00479</v>
+        <v>0.00478</v>
       </c>
       <c r="M107" t="n">
         <v>0.01215</v>
@@ -9152,7 +9152,7 @@
         <v>0.06</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0697465089933722</v>
+        <v>0.0697398710792566</v>
       </c>
       <c r="H108" t="n">
         <v>0.27</v>
@@ -9233,7 +9233,7 @@
         <v>0.06</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0697465089933722</v>
+        <v>0.0697398710792566</v>
       </c>
       <c r="H109" t="n">
         <v>0.27</v>
@@ -9387,13 +9387,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0832203389830509</v>
+        <v>0.0832305084745763</v>
       </c>
       <c r="H111" t="n">
         <v>0.287</v>
       </c>
       <c r="I111" t="n">
-        <v>0.17465</v>
+        <v>0.17443</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9401,10 +9401,10 @@
         <v>0.054</v>
       </c>
       <c r="M111" t="n">
-        <v>0.13447</v>
+        <v>0.13474</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1709</v>
+        <v>0.17129</v>
       </c>
       <c r="O111" t="n">
         <v>1814087</v>
@@ -9464,13 +9464,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0832203389830509</v>
+        <v>0.0832305084745763</v>
       </c>
       <c r="H112" t="n">
         <v>0.287</v>
       </c>
       <c r="I112" t="n">
-        <v>0.17465</v>
+        <v>0.17443</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9478,10 +9478,10 @@
         <v>0.054</v>
       </c>
       <c r="M112" t="n">
-        <v>0.13447</v>
+        <v>0.13474</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1709</v>
+        <v>0.17129</v>
       </c>
       <c r="O112" t="n">
         <v>1814087</v>
@@ -9695,7 +9695,7 @@
         <v>0.014</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0161549777777114</v>
+        <v>0.0161583200329154</v>
       </c>
       <c r="H115" t="n">
         <v>0.082</v>
@@ -9772,7 +9772,7 @@
         <v>0.014</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0161549777777114</v>
+        <v>0.0161583200329154</v>
       </c>
       <c r="H116" t="n">
         <v>0.082</v>
@@ -10011,7 +10011,7 @@
         <v>3.175</v>
       </c>
       <c r="G119" t="n">
-        <v>3.15163653086921</v>
+        <v>3.1395761740248</v>
       </c>
       <c r="H119" t="n">
         <v>6.4</v>
@@ -10092,7 +10092,7 @@
         <v>0.0065</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0068069920233804</v>
+        <v>0.0068124611718753</v>
       </c>
       <c r="H120" t="n">
         <v>0.025</v>
@@ -10173,7 +10173,7 @@
         <v>0.0065</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0068069920233804</v>
+        <v>0.0068124611718753</v>
       </c>
       <c r="H121" t="n">
         <v>0.025</v>
@@ -10671,7 +10671,7 @@
         <v>0.00413</v>
       </c>
       <c r="G127" t="n">
-        <v>0.007438247414627</v>
+        <v>0.0074502422319954</v>
       </c>
       <c r="H127" t="n">
         <v>0.0706495960573401</v>
@@ -10682,7 +10682,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00237</v>
+        <v>0.00244</v>
       </c>
       <c r="M127" t="n">
         <v>0.01204</v>
@@ -10752,7 +10752,7 @@
         <v>0.00413</v>
       </c>
       <c r="G128" t="n">
-        <v>0.007438247414627</v>
+        <v>0.0074502422319954</v>
       </c>
       <c r="H128" t="n">
         <v>0.0706495960573401</v>
@@ -10763,7 +10763,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00237</v>
+        <v>0.00244</v>
       </c>
       <c r="M128" t="n">
         <v>0.01204</v>
@@ -10833,7 +10833,7 @@
         <v>0.05</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0643411446474722</v>
+        <v>0.0643356824398043</v>
       </c>
       <c r="H129" t="n">
         <v>0.27</v>
@@ -10914,7 +10914,7 @@
         <v>0.05</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0643411446474722</v>
+        <v>0.0643356824398043</v>
       </c>
       <c r="H130" t="n">
         <v>0.27</v>
@@ -11068,24 +11068,24 @@
         <v>0.061</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0775</v>
+        <v>0.0774716666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0.287</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1745</v>
+        <v>0.1743</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.0475</v>
+        <v>0.04715</v>
       </c>
       <c r="M132" t="n">
         <v>0.128</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1705</v>
+        <v>0.17085</v>
       </c>
       <c r="O132" t="n">
         <v>1814087</v>
@@ -11145,24 +11145,24 @@
         <v>0.061</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0775</v>
+        <v>0.0774716666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0.287</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1745</v>
+        <v>0.1743</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.0475</v>
+        <v>0.04715</v>
       </c>
       <c r="M133" t="n">
         <v>0.128</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1705</v>
+        <v>0.17085</v>
       </c>
       <c r="O133" t="n">
         <v>1814087</v>
@@ -11376,7 +11376,7 @@
         <v>0.013</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0155190614814162</v>
+        <v>0.0155223480323668</v>
       </c>
       <c r="H136" t="n">
         <v>0.082</v>
@@ -11453,7 +11453,7 @@
         <v>0.013</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0155190614814162</v>
+        <v>0.0155223480323668</v>
       </c>
       <c r="H137" t="n">
         <v>0.082</v>
@@ -11692,7 +11692,7 @@
         <v>3.075</v>
       </c>
       <c r="G140" t="n">
-        <v>3.02494903509087</v>
+        <v>3.01305168462802</v>
       </c>
       <c r="H140" t="n">
         <v>5.75</v>
@@ -11706,7 +11706,7 @@
         <v>3.7</v>
       </c>
       <c r="M140" t="n">
-        <v>4.21745</v>
+        <v>4.1</v>
       </c>
       <c r="N140" t="n">
         <v>5.125</v>
@@ -11773,7 +11773,7 @@
         <v>0.007</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0072264866621221</v>
+        <v>0.0072299268975729</v>
       </c>
       <c r="H141" t="n">
         <v>0.025</v>
@@ -11854,7 +11854,7 @@
         <v>0.007</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0072264866621221</v>
+        <v>0.0072299268975729</v>
       </c>
       <c r="H142" t="n">
         <v>0.025</v>
@@ -12349,10 +12349,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.00233</v>
+        <v>0.00241</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0054451753998395</v>
+        <v>0.0054772897205792</v>
       </c>
       <c r="H148" t="n">
         <v>0.0528406928597443</v>
@@ -12363,7 +12363,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.002</v>
+        <v>0.00214</v>
       </c>
       <c r="M148" t="n">
         <v>0.00898</v>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.00233</v>
+        <v>0.00241</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0054451753998395</v>
+        <v>0.0054772897205792</v>
       </c>
       <c r="H149" t="n">
         <v>0.0528406928597443</v>
@@ -12444,7 +12444,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.002</v>
+        <v>0.00214</v>
       </c>
       <c r="M149" t="n">
         <v>0.00898</v>
@@ -12514,7 +12514,7 @@
         <v>0.0413</v>
       </c>
       <c r="G150" t="n">
-        <v>0.056356342157652</v>
+        <v>0.0563470040208662</v>
       </c>
       <c r="H150" t="n">
         <v>0.27</v>
@@ -12595,7 +12595,7 @@
         <v>0.0413</v>
       </c>
       <c r="G151" t="n">
-        <v>0.056356342157652</v>
+        <v>0.0563470040208662</v>
       </c>
       <c r="H151" t="n">
         <v>0.27</v>
@@ -12746,27 +12746,27 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.053</v>
+        <v>0.05295</v>
       </c>
       <c r="G153" t="n">
-        <v>0.066014381736892</v>
+        <v>0.065983328846365</v>
       </c>
       <c r="H153" t="n">
         <v>0.277</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1695</v>
+        <v>0.16975</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>0.045</v>
+        <v>0.04475</v>
       </c>
       <c r="M153" t="n">
         <v>0.1203</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1552</v>
+        <v>0.15517</v>
       </c>
       <c r="O153" t="n">
         <v>1814087</v>
@@ -12823,27 +12823,27 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.053</v>
+        <v>0.05295</v>
       </c>
       <c r="G154" t="n">
-        <v>0.066014381736892</v>
+        <v>0.065983328846365</v>
       </c>
       <c r="H154" t="n">
         <v>0.277</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1695</v>
+        <v>0.16975</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.045</v>
+        <v>0.04475</v>
       </c>
       <c r="M154" t="n">
         <v>0.1203</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1552</v>
+        <v>0.15517</v>
       </c>
       <c r="O154" t="n">
         <v>1814087</v>
@@ -13057,7 +13057,7 @@
         <v>0.0125</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0145391301766381</v>
+        <v>0.0145408828348467</v>
       </c>
       <c r="H157" t="n">
         <v>0.053</v>
@@ -13134,7 +13134,7 @@
         <v>0.0125</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0145391301766381</v>
+        <v>0.0145408828348467</v>
       </c>
       <c r="H158" t="n">
         <v>0.053</v>
@@ -13373,7 +13373,7 @@
         <v>2.9</v>
       </c>
       <c r="G161" t="n">
-        <v>2.72246135385932</v>
+        <v>2.71123743832832</v>
       </c>
       <c r="H161" t="n">
         <v>5.52</v>
@@ -13387,10 +13387,10 @@
         <v>3.1</v>
       </c>
       <c r="M161" t="n">
-        <v>3.8745</v>
+        <v>3.73402</v>
       </c>
       <c r="N161" t="n">
-        <v>4.23891</v>
+        <v>4.152</v>
       </c>
       <c r="O161" t="n">
         <v>1814087</v>
@@ -13454,7 +13454,7 @@
         <v>0.008</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0078240139478809</v>
+        <v>0.007825408250049799</v>
       </c>
       <c r="H162" t="n">
         <v>0.025</v>
@@ -13535,7 +13535,7 @@
         <v>0.008</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0078240139478809</v>
+        <v>0.007825408250049799</v>
       </c>
       <c r="H163" t="n">
         <v>0.025</v>
@@ -14030,10 +14030,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.00233</v>
+        <v>0.00241</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0040347271323451</v>
+        <v>0.0040909075678953</v>
       </c>
       <c r="H169" t="n">
         <v>0.0528406928597443</v>
@@ -14044,10 +14044,10 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.002</v>
+        <v>0.00214</v>
       </c>
       <c r="M169" t="n">
-        <v>0.00454</v>
+        <v>0.00461</v>
       </c>
       <c r="N169" t="n">
         <v>0.00783</v>
@@ -14111,10 +14111,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00233</v>
+        <v>0.00241</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0040347271323451</v>
+        <v>0.0040909075678953</v>
       </c>
       <c r="H170" t="n">
         <v>0.0528406928597443</v>
@@ -14125,10 +14125,10 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.002</v>
+        <v>0.00214</v>
       </c>
       <c r="M170" t="n">
-        <v>0.00454</v>
+        <v>0.00461</v>
       </c>
       <c r="N170" t="n">
         <v>0.00783</v>
@@ -14195,7 +14195,7 @@
         <v>0.03905</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0485230088243187</v>
+        <v>0.0485136706875328</v>
       </c>
       <c r="H171" t="n">
         <v>0.1619</v>
@@ -14276,7 +14276,7 @@
         <v>0.03905</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0485230088243187</v>
+        <v>0.0485136706875328</v>
       </c>
       <c r="H172" t="n">
         <v>0.1619</v>
@@ -14427,27 +14427,27 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.0505</v>
+        <v>0.05045</v>
       </c>
       <c r="G174" t="n">
-        <v>0.057764381736892</v>
+        <v>0.057733328846365</v>
       </c>
       <c r="H174" t="n">
-        <v>0.176</v>
+        <v>0.1756</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1345</v>
+        <v>0.13445</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.0345</v>
+        <v>0.03455</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0902</v>
+        <v>0.09038</v>
       </c>
       <c r="N174" t="n">
-        <v>0.125</v>
+        <v>0.12494</v>
       </c>
       <c r="O174" t="n">
         <v>1814087</v>
@@ -14504,27 +14504,27 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.0505</v>
+        <v>0.05045</v>
       </c>
       <c r="G175" t="n">
-        <v>0.057764381736892</v>
+        <v>0.057733328846365</v>
       </c>
       <c r="H175" t="n">
-        <v>0.176</v>
+        <v>0.1756</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1345</v>
+        <v>0.13445</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.0345</v>
+        <v>0.03455</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0902</v>
+        <v>0.09038</v>
       </c>
       <c r="N175" t="n">
-        <v>0.125</v>
+        <v>0.12494</v>
       </c>
       <c r="O175" t="n">
         <v>1814087</v>
@@ -15054,13 +15054,13 @@
         <v>2.688</v>
       </c>
       <c r="G182" t="n">
-        <v>2.49993305197252</v>
+        <v>2.48870913644153</v>
       </c>
       <c r="H182" t="n">
         <v>5.52</v>
       </c>
       <c r="I182" t="n">
-        <v>4.19983</v>
+        <v>4.0955</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -15071,7 +15071,7 @@
         <v>3.5196</v>
       </c>
       <c r="N182" t="n">
-        <v>4.0778</v>
+        <v>3.9442</v>
       </c>
       <c r="O182" t="n">
         <v>1814087</v>
@@ -15135,7 +15135,7 @@
         <v>0.008</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0083644484658883</v>
+        <v>0.008365283916226599</v>
       </c>
       <c r="H183" t="n">
         <v>0.025</v>
@@ -15216,7 +15216,7 @@
         <v>0.008</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0083644484658883</v>
+        <v>0.008365283916226599</v>
       </c>
       <c r="H184" t="n">
         <v>0.025</v>
@@ -15711,10 +15711,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.0027</v>
+        <v>0.0028</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0051528654727062</v>
+        <v>0.0052260478607681</v>
       </c>
       <c r="H190" t="n">
         <v>0.0528406928597443</v>
@@ -15725,13 +15725,13 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.00273</v>
+        <v>0.00285</v>
       </c>
       <c r="M190" t="n">
-        <v>0.00649</v>
+        <v>0.00658</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01189</v>
+        <v>0.01192</v>
       </c>
       <c r="O190" t="n">
         <v>1814087</v>
@@ -15792,10 +15792,10 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.0027</v>
+        <v>0.0028</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0051528654727062</v>
+        <v>0.0052260478607681</v>
       </c>
       <c r="H191" t="n">
         <v>0.0528406928597443</v>
@@ -15806,13 +15806,13 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00273</v>
+        <v>0.00285</v>
       </c>
       <c r="M191" t="n">
-        <v>0.00649</v>
+        <v>0.00658</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01189</v>
+        <v>0.01192</v>
       </c>
       <c r="O191" t="n">
         <v>1814087</v>
@@ -15876,7 +15876,7 @@
         <v>0.045</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0655330088243187</v>
+        <v>0.0655236706875328</v>
       </c>
       <c r="H192" t="n">
         <v>0.99</v>
@@ -15957,7 +15957,7 @@
         <v>0.045</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0655330088243187</v>
+        <v>0.0655236706875328</v>
       </c>
       <c r="H193" t="n">
         <v>0.99</v>
@@ -16111,13 +16111,13 @@
         <v>0.055</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07566438173689199</v>
+        <v>0.07564832884636501</v>
       </c>
       <c r="H195" t="n">
         <v>1.07</v>
       </c>
       <c r="I195" t="n">
-        <v>0.174</v>
+        <v>0.17405</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -16188,13 +16188,13 @@
         <v>0.055</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07566438173689199</v>
+        <v>0.07564832884636501</v>
       </c>
       <c r="H196" t="n">
         <v>1.07</v>
       </c>
       <c r="I196" t="n">
-        <v>0.174</v>
+        <v>0.17405</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -16816,7 +16816,7 @@
         <v>0.008</v>
       </c>
       <c r="G204" t="n">
-        <v>0.008097781799221699</v>
+        <v>0.00809861724956</v>
       </c>
       <c r="H204" t="n">
         <v>0.024</v>
@@ -16897,7 +16897,7 @@
         <v>0.008</v>
       </c>
       <c r="G205" t="n">
-        <v>0.008097781799221699</v>
+        <v>0.00809861724956</v>
       </c>
       <c r="H205" t="n">
         <v>0.024</v>
@@ -17392,10 +17392,10 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.003</v>
+        <v>0.00311</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0050384041430405</v>
+        <v>0.0051359901883933</v>
       </c>
       <c r="H211" t="n">
         <v>0.0376198525467356</v>
@@ -17406,13 +17406,13 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.00354</v>
+        <v>0.00367</v>
       </c>
       <c r="M211" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01008</v>
+        <v>0.01026</v>
       </c>
       <c r="O211" t="n">
         <v>1814087</v>
@@ -17473,10 +17473,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.003</v>
+        <v>0.00311</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0050384041430405</v>
+        <v>0.0051359901883933</v>
       </c>
       <c r="H212" t="n">
         <v>0.0376198525467356</v>
@@ -17487,13 +17487,13 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.00354</v>
+        <v>0.00367</v>
       </c>
       <c r="M212" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01008</v>
+        <v>0.01026</v>
       </c>
       <c r="O212" t="n">
         <v>1814087</v>
@@ -17557,7 +17557,7 @@
         <v>0.0485</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0687200198185433</v>
+        <v>0.0687010224580339</v>
       </c>
       <c r="H213" t="n">
         <v>0.99</v>
@@ -17638,7 +17638,7 @@
         <v>0.0485</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0687200198185433</v>
+        <v>0.0687010224580339</v>
       </c>
       <c r="H214" t="n">
         <v>0.99</v>
@@ -17792,7 +17792,7 @@
         <v>0.055</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07724771507022531</v>
+        <v>0.0772449955130317</v>
       </c>
       <c r="H216" t="n">
         <v>1.07</v>
@@ -17869,7 +17869,7 @@
         <v>0.055</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07724771507022531</v>
+        <v>0.0772449955130317</v>
       </c>
       <c r="H217" t="n">
         <v>1.07</v>
@@ -18497,7 +18497,7 @@
         <v>0.007</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0077116797322167</v>
+        <v>0.0077122806792174</v>
       </c>
       <c r="H225" t="n">
         <v>0.024</v>
@@ -18578,7 +18578,7 @@
         <v>0.007</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0077116797322167</v>
+        <v>0.0077122806792174</v>
       </c>
       <c r="H226" t="n">
         <v>0.024</v>
@@ -19073,10 +19073,10 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.00367</v>
+        <v>0.00374</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0055386830589699</v>
+        <v>0.0056336146785247</v>
       </c>
       <c r="H232" t="n">
         <v>0.0376198525467356</v>
@@ -19087,13 +19087,13 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.00459</v>
+        <v>0.0047</v>
       </c>
       <c r="M232" t="n">
-        <v>0.00856</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01075</v>
+        <v>0.01088</v>
       </c>
       <c r="O232" t="n">
         <v>1814087</v>
@@ -19154,10 +19154,10 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.00367</v>
+        <v>0.00374</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0055386830589699</v>
+        <v>0.0056336146785247</v>
       </c>
       <c r="H233" t="n">
         <v>0.0376198525467356</v>
@@ -19168,13 +19168,13 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.00459</v>
+        <v>0.0047</v>
       </c>
       <c r="M233" t="n">
-        <v>0.00856</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01075</v>
+        <v>0.01088</v>
       </c>
       <c r="O233" t="n">
         <v>1814087</v>
@@ -19238,7 +19238,7 @@
         <v>0.049</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07266042073742041</v>
+        <v>0.0726344340237695</v>
       </c>
       <c r="H234" t="n">
         <v>0.99</v>
@@ -19319,7 +19319,7 @@
         <v>0.049</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07266042073742041</v>
+        <v>0.0726344340237695</v>
       </c>
       <c r="H235" t="n">
         <v>0.99</v>
@@ -19473,7 +19473,7 @@
         <v>0.055</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0810122373051811</v>
+        <v>0.08101701930093889</v>
       </c>
       <c r="H237" t="n">
         <v>1.07</v>
@@ -19550,7 +19550,7 @@
         <v>0.055</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0810122373051811</v>
+        <v>0.08101701930093889</v>
       </c>
       <c r="H238" t="n">
         <v>1.07</v>
@@ -20178,7 +20178,7 @@
         <v>0.006</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0071873745179043</v>
+        <v>0.007187550394477</v>
       </c>
       <c r="H246" t="n">
         <v>0.024</v>
@@ -20259,7 +20259,7 @@
         <v>0.006</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0071873745179043</v>
+        <v>0.007187550394477</v>
       </c>
       <c r="H247" t="n">
         <v>0.024</v>
@@ -20754,27 +20754,27 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0.0039</v>
+        <v>0.00401</v>
       </c>
       <c r="G253" t="n">
-        <v>0.0055365629649824</v>
+        <v>0.0056086666864812</v>
       </c>
       <c r="H253" t="n">
         <v>0.0376198525467356</v>
       </c>
       <c r="I253" t="n">
-        <v>0.01194</v>
+        <v>0.01196</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>0.00459</v>
+        <v>0.0047</v>
       </c>
       <c r="M253" t="n">
-        <v>0.00847</v>
+        <v>0.00855</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O253" t="n">
         <v>1814087</v>
@@ -20835,27 +20835,27 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0.0039</v>
+        <v>0.00401</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0055365629649824</v>
+        <v>0.0056086666864812</v>
       </c>
       <c r="H254" t="n">
         <v>0.0376198525467356</v>
       </c>
       <c r="I254" t="n">
-        <v>0.01194</v>
+        <v>0.01196</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
-        <v>0.00459</v>
+        <v>0.0047</v>
       </c>
       <c r="M254" t="n">
-        <v>0.00847</v>
+        <v>0.00855</v>
       </c>
       <c r="N254" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O254" t="n">
         <v>1814087</v>
@@ -20919,7 +20919,7 @@
         <v>0.056</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0818483554728308</v>
+        <v>0.0818263103820117</v>
       </c>
       <c r="H255" t="n">
         <v>0.99</v>
@@ -21000,7 +21000,7 @@
         <v>0.056</v>
       </c>
       <c r="G256" t="n">
-        <v>0.0818483554728308</v>
+        <v>0.0818263103820117</v>
       </c>
       <c r="H256" t="n">
         <v>0.99</v>
@@ -21154,7 +21154,7 @@
         <v>0.065</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0899298151998672</v>
+        <v>0.0899373628470084</v>
       </c>
       <c r="H258" t="n">
         <v>1.07</v>
@@ -21231,7 +21231,7 @@
         <v>0.065</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0899298151998672</v>
+        <v>0.0899373628470084</v>
       </c>
       <c r="H259" t="n">
         <v>1.07</v>
@@ -22438,24 +22438,24 @@
         <v>0.00449</v>
       </c>
       <c r="G274" t="n">
-        <v>0.0056700979444346</v>
+        <v>0.0057134274387921</v>
       </c>
       <c r="H274" t="n">
         <v>0.0376198525467356</v>
       </c>
       <c r="I274" t="n">
-        <v>0.01194</v>
+        <v>0.01196</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
-        <v>0.00529</v>
+        <v>0.0054</v>
       </c>
       <c r="M274" t="n">
-        <v>0.00856</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N274" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O274" t="n">
         <v>1814087</v>
@@ -22519,24 +22519,24 @@
         <v>0.00449</v>
       </c>
       <c r="G275" t="n">
-        <v>0.0056700979444346</v>
+        <v>0.0057134274387921</v>
       </c>
       <c r="H275" t="n">
         <v>0.0376198525467356</v>
       </c>
       <c r="I275" t="n">
-        <v>0.01194</v>
+        <v>0.01196</v>
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
-        <v>0.00529</v>
+        <v>0.0054</v>
       </c>
       <c r="M275" t="n">
-        <v>0.00856</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N275" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O275" t="n">
         <v>1814087</v>
@@ -22600,7 +22600,7 @@
         <v>0.063</v>
       </c>
       <c r="G276" t="n">
-        <v>0.0850347961507969</v>
+        <v>0.0850127510599778</v>
       </c>
       <c r="H276" t="n">
         <v>0.99</v>
@@ -22681,7 +22681,7 @@
         <v>0.063</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0850347961507969</v>
+        <v>0.0850127510599778</v>
       </c>
       <c r="H277" t="n">
         <v>0.99</v>
@@ -22835,7 +22835,7 @@
         <v>0.065</v>
       </c>
       <c r="G279" t="n">
-        <v>0.0935230355388502</v>
+        <v>0.0935305831859914</v>
       </c>
       <c r="H279" t="n">
         <v>1.07</v>
@@ -22912,7 +22912,7 @@
         <v>0.065</v>
       </c>
       <c r="G280" t="n">
-        <v>0.0935230355388502</v>
+        <v>0.0935305831859914</v>
       </c>
       <c r="H280" t="n">
         <v>1.07</v>
@@ -23271,6 +23271,1687 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.59185</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>6</v>
+      </c>
+      <c r="G286" t="n">
+        <v>13.1488775510204</v>
+      </c>
+      <c r="H286" t="n">
+        <v>140</v>
+      </c>
+      <c r="I286" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>7</v>
+      </c>
+      <c r="M286" t="n">
+        <v>22.585</v>
+      </c>
+      <c r="N286" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1.94761764705882</v>
+      </c>
+      <c r="H287" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="M287" t="n">
+        <v>3.1244</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3.94512</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0074067796610169</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0074067796610169</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>85</v>
+      </c>
+      <c r="G290" t="n">
+        <v>288.372881355932</v>
+      </c>
+      <c r="H290" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J290" t="n">
+        <v>8.474576271186439</v>
+      </c>
+      <c r="K290" t="n">
+        <v>20.3389830508475</v>
+      </c>
+      <c r="L290" t="n">
+        <v>160</v>
+      </c>
+      <c r="M290" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="N290" t="n">
+        <v>708.4</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>85</v>
+      </c>
+      <c r="G291" t="n">
+        <v>288.372881355932</v>
+      </c>
+      <c r="H291" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J291" t="n">
+        <v>8.474576271186439</v>
+      </c>
+      <c r="K291" t="n">
+        <v>20.3389830508475</v>
+      </c>
+      <c r="L291" t="n">
+        <v>160</v>
+      </c>
+      <c r="M291" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="N291" t="n">
+        <v>708.4</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>85</v>
+      </c>
+      <c r="G292" t="n">
+        <v>288.372881355932</v>
+      </c>
+      <c r="H292" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J292" t="n">
+        <v>8.474576271186439</v>
+      </c>
+      <c r="K292" t="n">
+        <v>20.3389830508475</v>
+      </c>
+      <c r="L292" t="n">
+        <v>160</v>
+      </c>
+      <c r="M292" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="N292" t="n">
+        <v>708.4</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>85</v>
+      </c>
+      <c r="G293" t="n">
+        <v>288.372881355932</v>
+      </c>
+      <c r="H293" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J293" t="n">
+        <v>8.474576271186439</v>
+      </c>
+      <c r="K293" t="n">
+        <v>20.3389830508475</v>
+      </c>
+      <c r="L293" t="n">
+        <v>160</v>
+      </c>
+      <c r="M293" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="N293" t="n">
+        <v>708.4</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>123</v>
+      </c>
+      <c r="G294" t="n">
+        <v>122.146</v>
+      </c>
+      <c r="H294" t="n">
+        <v>130.53</v>
+      </c>
+      <c r="I294" t="n">
+        <v>130.53</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>123</v>
+      </c>
+      <c r="M294" t="n">
+        <v>127.9645</v>
+      </c>
+      <c r="N294" t="n">
+        <v>130.53</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0046836054206257</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.0215156026343535</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.01027</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.009809999999999999</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0046836054206257</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.0215156026343535</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.01027</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.009809999999999999</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06977546292438459</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.14534</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06977546292438459</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.14534</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="G299" t="n">
+        <v>5.985</v>
+      </c>
+      <c r="H299" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I299" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="M299" t="n">
+        <v>6.852</v>
+      </c>
+      <c r="N299" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0771577018300592</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.15578</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0771577018300592</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.15578</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.242372881355932</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.5555</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.2847</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.242372881355932</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.5555</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.2847</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0239491525423729</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.02194</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.03478</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.0239491525423729</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.02194</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.03478</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
+++ b/state_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
@@ -1947,10 +1947,10 @@
         <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>2.81964899792437</v>
+        <v>2.79711259559229</v>
       </c>
       <c r="H19" t="n">
-        <v>9.21131091905044</v>
+        <v>8.332391228099381</v>
       </c>
       <c r="I19" t="n">
         <v>7.015</v>
@@ -2846,10 +2846,10 @@
         <v>2.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.10732621838101</v>
+        <v>3.08974782456199</v>
       </c>
       <c r="H30" t="n">
-        <v>9.21131091905044</v>
+        <v>8.332391228099381</v>
       </c>
       <c r="I30" t="n">
         <v>6.3</v>
@@ -3907,10 +3907,10 @@
         <v>3.175</v>
       </c>
       <c r="G43" t="n">
-        <v>3.33715070777779</v>
+        <v>3.31957231395877</v>
       </c>
       <c r="H43" t="n">
-        <v>9.21131091905044</v>
+        <v>8.332391228099381</v>
       </c>
       <c r="I43" t="n">
         <v>6.4</v>
@@ -5276,10 +5276,10 @@
         <v>3.6</v>
       </c>
       <c r="G60" t="n">
-        <v>3.71611777423169</v>
+        <v>3.69741735527528</v>
       </c>
       <c r="H60" t="n">
-        <v>9.21131091905044</v>
+        <v>8.332391228099381</v>
       </c>
       <c r="I60" t="n">
         <v>6.58</v>
@@ -8330,7 +8330,7 @@
         <v>3.3</v>
       </c>
       <c r="G98" t="n">
-        <v>3.33762370002431</v>
+        <v>3.34515329565491</v>
       </c>
       <c r="H98" t="n">
         <v>6.4</v>
@@ -10011,7 +10011,7 @@
         <v>3.175</v>
       </c>
       <c r="G119" t="n">
-        <v>3.1395761740248</v>
+        <v>3.147256361568</v>
       </c>
       <c r="H119" t="n">
         <v>6.4</v>
@@ -11692,7 +11692,7 @@
         <v>3.075</v>
       </c>
       <c r="G140" t="n">
-        <v>3.01305168462802</v>
+        <v>3.02073187217122</v>
       </c>
       <c r="H140" t="n">
         <v>5.75</v>
@@ -13373,7 +13373,7 @@
         <v>2.9</v>
       </c>
       <c r="G161" t="n">
-        <v>2.71123743832832</v>
+        <v>2.71848289827474</v>
       </c>
       <c r="H161" t="n">
         <v>5.52</v>
@@ -13387,7 +13387,7 @@
         <v>3.1</v>
       </c>
       <c r="M161" t="n">
-        <v>3.73402</v>
+        <v>3.8745</v>
       </c>
       <c r="N161" t="n">
         <v>4.152</v>
@@ -15054,7 +15054,7 @@
         <v>2.688</v>
       </c>
       <c r="G182" t="n">
-        <v>2.48870913644153</v>
+        <v>2.49595459638795</v>
       </c>
       <c r="H182" t="n">
         <v>5.52</v>
@@ -15071,7 +15071,7 @@
         <v>3.5196</v>
       </c>
       <c r="N182" t="n">
-        <v>3.9442</v>
+        <v>4.02308</v>
       </c>
       <c r="O182" t="n">
         <v>1814087</v>
